--- a/natmiOut/OldD7/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/F7-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>F3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.30762956684343</v>
+        <v>1.348664666666667</v>
       </c>
       <c r="H2">
-        <v>1.30762956684343</v>
+        <v>4.045994</v>
       </c>
       <c r="I2">
-        <v>0.5828205810173758</v>
+        <v>0.5352212056913968</v>
       </c>
       <c r="J2">
-        <v>0.5828205810173758</v>
+        <v>0.5352212056913968</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>42.3686365199221</v>
+        <v>1.371899666666667</v>
       </c>
       <c r="N2">
-        <v>42.3686365199221</v>
+        <v>4.115699</v>
       </c>
       <c r="O2">
-        <v>0.9809343943000461</v>
+        <v>0.03023679715004545</v>
       </c>
       <c r="P2">
-        <v>0.9809343943000461</v>
+        <v>0.03023679715004545</v>
       </c>
       <c r="Q2">
-        <v>55.40248182029246</v>
+        <v>1.850232606645111</v>
       </c>
       <c r="R2">
-        <v>55.40248182029246</v>
+        <v>16.652093459806</v>
       </c>
       <c r="S2">
-        <v>0.5717087536258805</v>
+        <v>0.01618337502689352</v>
       </c>
       <c r="T2">
-        <v>0.5717087536258805</v>
+        <v>0.01618337502689352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,185 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.30762956684343</v>
+        <v>1.348664666666667</v>
       </c>
       <c r="H3">
-        <v>1.30762956684343</v>
+        <v>4.045994</v>
       </c>
       <c r="I3">
-        <v>0.5828205810173758</v>
+        <v>0.5352212056913968</v>
       </c>
       <c r="J3">
-        <v>0.5828205810173758</v>
+        <v>0.5352212056913968</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.823483937995569</v>
+        <v>42.63475033333334</v>
       </c>
       <c r="N3">
-        <v>0.823483937995569</v>
+        <v>127.904251</v>
       </c>
       <c r="O3">
-        <v>0.01906560569995387</v>
+        <v>0.9396738906600065</v>
       </c>
       <c r="P3">
-        <v>0.01906560569995387</v>
+        <v>0.9396738906600065</v>
       </c>
       <c r="Q3">
-        <v>1.076811945143668</v>
+        <v>57.49998134672157</v>
       </c>
       <c r="R3">
-        <v>1.076811945143668</v>
+        <v>517.499832120494</v>
       </c>
       <c r="S3">
-        <v>0.0111118273914953</v>
+        <v>0.5029333927157744</v>
       </c>
       <c r="T3">
-        <v>0.0111118273914953</v>
+        <v>0.5029333927157744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.935993272557372</v>
+        <v>1.348664666666667</v>
       </c>
       <c r="H4">
-        <v>0.935993272557372</v>
+        <v>4.045994</v>
       </c>
       <c r="I4">
-        <v>0.4171794189826241</v>
+        <v>0.5352212056913968</v>
       </c>
       <c r="J4">
-        <v>0.4171794189826241</v>
+        <v>0.5352212056913968</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>42.3686365199221</v>
+        <v>0.1857223333333333</v>
       </c>
       <c r="N4">
-        <v>42.3686365199221</v>
+        <v>0.557167</v>
       </c>
       <c r="O4">
-        <v>0.9809343943000461</v>
+        <v>0.004093337622041692</v>
       </c>
       <c r="P4">
-        <v>0.9809343943000461</v>
+        <v>0.004093337622041692</v>
       </c>
       <c r="Q4">
-        <v>39.65675875007567</v>
+        <v>0.2504771487775556</v>
       </c>
       <c r="R4">
-        <v>39.65675875007567</v>
+        <v>2.254294338998</v>
       </c>
       <c r="S4">
-        <v>0.4092256406741656</v>
+        <v>0.002190841097371109</v>
       </c>
       <c r="T4">
-        <v>0.4092256406741656</v>
+        <v>0.002190841097371109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.935993272557372</v>
+        <v>1.348664666666667</v>
       </c>
       <c r="H5">
-        <v>0.935993272557372</v>
+        <v>4.045994</v>
       </c>
       <c r="I5">
-        <v>0.4171794189826241</v>
+        <v>0.5352212056913968</v>
       </c>
       <c r="J5">
-        <v>0.4171794189826241</v>
+        <v>0.5352212056913968</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.823483937995569</v>
+        <v>1.179485666666667</v>
       </c>
       <c r="N5">
-        <v>0.823483937995569</v>
+        <v>3.538457</v>
       </c>
       <c r="O5">
-        <v>0.01906560569995387</v>
+        <v>0.02599597456790654</v>
       </c>
       <c r="P5">
-        <v>0.01906560569995387</v>
+        <v>0.02599597456790654</v>
       </c>
       <c r="Q5">
-        <v>0.7707754260229046</v>
+        <v>1.590730643473111</v>
       </c>
       <c r="R5">
-        <v>0.7707754260229046</v>
+        <v>14.316575791258</v>
       </c>
       <c r="S5">
-        <v>0.007953778308458561</v>
+        <v>0.01391359685135782</v>
       </c>
       <c r="T5">
-        <v>0.007953778308458561</v>
+        <v>0.01391359685135782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.06218433333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.186553</v>
+      </c>
+      <c r="I6">
+        <v>0.02467802018128231</v>
+      </c>
+      <c r="J6">
+        <v>0.02467802018128231</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>1.371899666666667</v>
+      </c>
+      <c r="N6">
+        <v>4.115699</v>
+      </c>
+      <c r="O6">
+        <v>0.03023679715004545</v>
+      </c>
+      <c r="P6">
+        <v>0.03023679715004545</v>
+      </c>
+      <c r="Q6">
+        <v>0.0853106661718889</v>
+      </c>
+      <c r="R6">
+        <v>0.7677959955470001</v>
+      </c>
+      <c r="S6">
+        <v>0.0007461842902861611</v>
+      </c>
+      <c r="T6">
+        <v>0.000746184290286161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.06218433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.186553</v>
+      </c>
+      <c r="I7">
+        <v>0.02467802018128231</v>
+      </c>
+      <c r="J7">
+        <v>0.02467802018128231</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>42.63475033333334</v>
+      </c>
+      <c r="N7">
+        <v>127.904251</v>
+      </c>
+      <c r="O7">
+        <v>0.9396738906600065</v>
+      </c>
+      <c r="P7">
+        <v>0.9396738906600065</v>
+      </c>
+      <c r="Q7">
+        <v>2.651213526311444</v>
+      </c>
+      <c r="R7">
+        <v>23.860921736803</v>
+      </c>
+      <c r="S7">
+        <v>0.02318929123753171</v>
+      </c>
+      <c r="T7">
+        <v>0.0231892912375317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06218433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.186553</v>
+      </c>
+      <c r="I8">
+        <v>0.02467802018128231</v>
+      </c>
+      <c r="J8">
+        <v>0.02467802018128231</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1857223333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.557167</v>
+      </c>
+      <c r="O8">
+        <v>0.004093337622041692</v>
+      </c>
+      <c r="P8">
+        <v>0.004093337622041692</v>
+      </c>
+      <c r="Q8">
+        <v>0.01154901948344444</v>
+      </c>
+      <c r="R8">
+        <v>0.103941175351</v>
+      </c>
+      <c r="S8">
+        <v>0.000101015468445547</v>
+      </c>
+      <c r="T8">
+        <v>0.000101015468445547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06218433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.186553</v>
+      </c>
+      <c r="I9">
+        <v>0.02467802018128231</v>
+      </c>
+      <c r="J9">
+        <v>0.02467802018128231</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.179485666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.538457</v>
+      </c>
+      <c r="O9">
+        <v>0.02599597456790654</v>
+      </c>
+      <c r="P9">
+        <v>0.02599597456790654</v>
+      </c>
+      <c r="Q9">
+        <v>0.07334552985788889</v>
+      </c>
+      <c r="R9">
+        <v>0.6601097687209999</v>
+      </c>
+      <c r="S9">
+        <v>0.0006415291850188991</v>
+      </c>
+      <c r="T9">
+        <v>0.0006415291850188991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.108977666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.326933</v>
+      </c>
+      <c r="I10">
+        <v>0.440100774127321</v>
+      </c>
+      <c r="J10">
+        <v>0.440100774127321</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.371899666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.115699</v>
+      </c>
+      <c r="O10">
+        <v>0.03023679715004545</v>
+      </c>
+      <c r="P10">
+        <v>0.03023679715004545</v>
+      </c>
+      <c r="Q10">
+        <v>1.521406091240778</v>
+      </c>
+      <c r="R10">
+        <v>13.692654821167</v>
+      </c>
+      <c r="S10">
+        <v>0.01330723783286578</v>
+      </c>
+      <c r="T10">
+        <v>0.01330723783286578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.108977666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.326933</v>
+      </c>
+      <c r="I11">
+        <v>0.440100774127321</v>
+      </c>
+      <c r="J11">
+        <v>0.440100774127321</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>42.63475033333334</v>
+      </c>
+      <c r="N11">
+        <v>127.904251</v>
+      </c>
+      <c r="O11">
+        <v>0.9396738906600065</v>
+      </c>
+      <c r="P11">
+        <v>0.9396738906600065</v>
+      </c>
+      <c r="Q11">
+        <v>47.2809859435759</v>
+      </c>
+      <c r="R11">
+        <v>425.528873492183</v>
+      </c>
+      <c r="S11">
+        <v>0.4135512067067004</v>
+      </c>
+      <c r="T11">
+        <v>0.4135512067067004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.108977666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.326933</v>
+      </c>
+      <c r="I12">
+        <v>0.440100774127321</v>
+      </c>
+      <c r="J12">
+        <v>0.440100774127321</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1857223333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.557167</v>
+      </c>
+      <c r="O12">
+        <v>0.004093337622041692</v>
+      </c>
+      <c r="P12">
+        <v>0.004093337622041692</v>
+      </c>
+      <c r="Q12">
+        <v>0.2059619198678889</v>
+      </c>
+      <c r="R12">
+        <v>1.853657278811</v>
+      </c>
+      <c r="S12">
+        <v>0.001801481056225036</v>
+      </c>
+      <c r="T12">
+        <v>0.001801481056225036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.108977666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.326933</v>
+      </c>
+      <c r="I13">
+        <v>0.440100774127321</v>
+      </c>
+      <c r="J13">
+        <v>0.440100774127321</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.179485666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.538457</v>
+      </c>
+      <c r="O13">
+        <v>0.02599597456790654</v>
+      </c>
+      <c r="P13">
+        <v>0.02599597456790654</v>
+      </c>
+      <c r="Q13">
+        <v>1.308023262486778</v>
+      </c>
+      <c r="R13">
+        <v>11.772209362381</v>
+      </c>
+      <c r="S13">
+        <v>0.01144084853152981</v>
+      </c>
+      <c r="T13">
+        <v>0.01144084853152981</v>
       </c>
     </row>
   </sheetData>
